--- a/trunk/doc/数值设计/架构层/战斗系统架构.xlsx
+++ b/trunk/doc/数值设计/架构层/战斗系统架构.xlsx
@@ -1,23 +1,280 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="数据结构" sheetId="1" r:id="rId1"/>
+    <sheet name="一二级属性对应关系" sheetId="2" r:id="rId2"/>
+    <sheet name="兵种规划" sheetId="3" r:id="rId3"/>
+    <sheet name="攻击距离" sheetId="4" r:id="rId4"/>
+    <sheet name="武将规划" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+只是一个比例，每个单位董涵决定</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+  <si>
+    <t xml:space="preserve">士兵属性：
+攻击力（整数）----决定了士兵伤害
+防御力（整数）----决定了士兵免伤值
+暴击值（整数）----决定了士兵的暴击率
+生命值（整数）----决定了士兵的生命值
+攻击距离（字符串）----决定士兵的攻击范围与距离
+兵种相克（字符串）----决定士兵对其他兵种的克制能力
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">人物（武将）一级属性
+等级(整数)----影响玩家的能力，包括可携带兵种，各项属性的上限值。DEMO时期影响一级属性值。
+力量(整数)----影响普通攻击力与普通防御力
+智力(整数)----影响技能攻击力与技能防御力
+体力(整数)----影响生命值
+统帅(整数)----影响带兵数量
+二级属性
+普通攻击力(整数)-----影响普通攻击伤害
+普通防御力(整数)-----减少受到的普通攻击伤害
+技能攻击力(整数)-----影响技能伤害
+技能防御力(整数)-----减少受到的技能攻击伤害
+生命值(整数)-----武将的生命值
+带兵数量上限(整数)-----武将能带的兵的数量
+熟练兵种加成(字符串)-----即兵种相生，武将对某一个或者多个特定兵种的加成，可以通过培养系统培养
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统帅</t>
+  </si>
+  <si>
+    <t>统帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻</t>
+  </si>
+  <si>
+    <t>普防</t>
+  </si>
+  <si>
+    <t>技攻</t>
+  </si>
+  <si>
+    <t>技防</t>
+  </si>
+  <si>
+    <t>带兵数</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种相克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾矛兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对营地攻击力附加30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对骑兵攻击力附加300%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对步兵攻击力附加20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对弓兵攻击力附加100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标格+周围4格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标格+周围8格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家一级时的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由潜能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每级属性步长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由潜能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害统计公式
+我方造成的伤害=(（我方攻击系数-对方防御系数）*位置面向系数)*暴击判断
+我方攻击系数=（（我方武将普通攻击力*我方武将等级）+（我方士兵攻击力*我方士兵数量/5）*我方武将熟练兵种加成*对象相克系数）+我方技能攻击系数   
+我方技能攻击系数=我方技能攻击力*我方武将等级+技能额外攻击力（每个技能不同）   普通攻击时，我方技能攻击系数=0
+对方防御系数=（（对方武将普通防御力*对方武将等级）+（对方士兵防御力*对方士兵数量/5）*对方武将熟练兵种加成*对象相克系数）+对方技能防御系数
+对方技能防御系数=对方技能防御力*对方武将等级     受到普通攻击时，技能防御系数=0
+位置面向系数=    同行攻击=1
+                非同行攻击=1.5
+我方暴击率=10%+（我方兵种暴击值-敌人兵种暴击值）/10
+暴击伤害倍率=暂时定为150%
+技能触发几率=（技能装备数量*5）/100+（我方武将技能攻击力-敌人武将技能攻击力）/1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +282,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,23 +345,372 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>866708</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>733344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762375" y="257175"/>
+          <a:ext cx="533333" cy="647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1038114</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1133366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="1295400"/>
+          <a:ext cx="885714" cy="876191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1085726</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1019063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="2524125"/>
+          <a:ext cx="990476" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1076201</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>980963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="3581400"/>
+          <a:ext cx="990476" cy="895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1676323</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>771457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="3724275"/>
+          <a:ext cx="619048" cy="542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>857183</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>885744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="4752975"/>
+          <a:ext cx="533333" cy="647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1047632</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1104780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="5724525"/>
+          <a:ext cx="942857" cy="961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1714417</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>885754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="5895975"/>
+          <a:ext cx="666667" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +995,1361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:N30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G17"/>
+    <mergeCell ref="I1:O17"/>
+    <mergeCell ref="A19:N30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <f>B10</f>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>B11</f>
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f>B12</f>
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <f>B2*B17</f>
+        <v>150</v>
+      </c>
+      <c r="G17">
+        <f>C2*B17</f>
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <f>D3*C17</f>
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <f>E3*C17</f>
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <f>F5*B12</f>
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <f>G4*B11</f>
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="D7:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="15.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.75" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="J1" s="4"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="8"/>
+      <c r="AC2" s="4"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="5"/>
+      <c r="Z3" s="3"/>
+      <c r="AC3" s="4"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="5"/>
+      <c r="AC4" s="4"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="J5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="S8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="R9" s="9"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="9"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="J10" s="10"/>
+      <c r="S10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="M15" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <f>一二级属性对应关系!$B$2*武将规划!B2</f>
+        <v>375</v>
+      </c>
+      <c r="G2">
+        <f>一二级属性对应关系!$C$2*武将规划!B2</f>
+        <v>225</v>
+      </c>
+      <c r="H2">
+        <f>一二级属性对应关系!$D$3*武将规划!C2</f>
+        <v>300</v>
+      </c>
+      <c r="I2">
+        <f>一二级属性对应关系!$E$3*武将规划!C2</f>
+        <v>180</v>
+      </c>
+      <c r="J2">
+        <f>一二级属性对应关系!$F$5*武将规划!E2</f>
+        <v>150</v>
+      </c>
+      <c r="K2">
+        <f>D2*一二级属性对应关系!$G$4</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <f>一二级属性对应关系!$B$2*武将规划!B3</f>
+        <v>375</v>
+      </c>
+      <c r="G3">
+        <f>一二级属性对应关系!$C$2*武将规划!B3</f>
+        <v>225</v>
+      </c>
+      <c r="H3">
+        <f>一二级属性对应关系!$D$3*武将规划!C3</f>
+        <v>375</v>
+      </c>
+      <c r="I3">
+        <f>一二级属性对应关系!$E$3*武将规划!C3</f>
+        <v>225</v>
+      </c>
+      <c r="J3">
+        <f>一二级属性对应关系!$F$5*武将规划!E3</f>
+        <v>150</v>
+      </c>
+      <c r="K3">
+        <f>D3*一二级属性对应关系!$G$4</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <f>一二级属性对应关系!$B$2*武将规划!B4</f>
+        <v>325</v>
+      </c>
+      <c r="G4">
+        <f>一二级属性对应关系!$C$2*武将规划!B4</f>
+        <v>195</v>
+      </c>
+      <c r="H4">
+        <f>一二级属性对应关系!$D$3*武将规划!C4</f>
+        <v>250</v>
+      </c>
+      <c r="I4">
+        <f>一二级属性对应关系!$E$3*武将规划!C4</f>
+        <v>150</v>
+      </c>
+      <c r="J4">
+        <f>一二级属性对应关系!$F$5*武将规划!E4</f>
+        <v>130</v>
+      </c>
+      <c r="K4">
+        <f>D4*一二级属性对应关系!$G$4</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f>一二级属性对应关系!$B$2*武将规划!B5</f>
+        <v>350</v>
+      </c>
+      <c r="G5">
+        <f>一二级属性对应关系!$C$2*武将规划!B5</f>
+        <v>210</v>
+      </c>
+      <c r="H5">
+        <f>一二级属性对应关系!$D$3*武将规划!C5</f>
+        <v>325</v>
+      </c>
+      <c r="I5">
+        <f>一二级属性对应关系!$E$3*武将规划!C5</f>
+        <v>195</v>
+      </c>
+      <c r="J5">
+        <f>一二级属性对应关系!$F$5*武将规划!E5</f>
+        <v>150</v>
+      </c>
+      <c r="K5">
+        <f>D5*一二级属性对应关系!$G$4</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <f>一二级属性对应关系!$B$2*武将规划!B6</f>
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <f>一二级属性对应关系!$C$2*武将规划!B6</f>
+        <v>180</v>
+      </c>
+      <c r="H6">
+        <f>一二级属性对应关系!$D$3*武将规划!C6</f>
+        <v>325</v>
+      </c>
+      <c r="I6">
+        <f>一二级属性对应关系!$E$3*武将规划!C6</f>
+        <v>195</v>
+      </c>
+      <c r="J6">
+        <f>一二级属性对应关系!$F$5*武将规划!E6</f>
+        <v>130</v>
+      </c>
+      <c r="K6">
+        <f>D6*一二级属性对应关系!$G$4</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <f>一二级属性对应关系!$B$2*武将规划!B7</f>
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <f>一二级属性对应关系!$C$2*武将规划!B7</f>
+        <v>180</v>
+      </c>
+      <c r="H7">
+        <f>一二级属性对应关系!$D$3*武将规划!C7</f>
+        <v>300</v>
+      </c>
+      <c r="I7">
+        <f>一二级属性对应关系!$E$3*武将规划!C7</f>
+        <v>180</v>
+      </c>
+      <c r="J7">
+        <f>一二级属性对应关系!$F$5*武将规划!E7</f>
+        <v>120</v>
+      </c>
+      <c r="K7">
+        <f>D7*一二级属性对应关系!$G$4</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f>一二级属性对应关系!$B$2*武将规划!B8</f>
+        <v>150</v>
+      </c>
+      <c r="G8">
+        <f>一二级属性对应关系!$C$2*武将规划!B8</f>
+        <v>90</v>
+      </c>
+      <c r="H8">
+        <f>一二级属性对应关系!$D$3*武将规划!C8</f>
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <f>一二级属性对应关系!$E$3*武将规划!C8</f>
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <f>一二级属性对应关系!$F$5*武将规划!E8</f>
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <f>D8*一二级属性对应关系!$G$4</f>
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/doc/数值设计/架构层/战斗系统架构.xlsx
+++ b/trunk/doc/数值设计/架构层/战斗系统架构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="数据结构" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伤害统计公式
+    <r>
+      <t>伤害统计公式
 我方造成的伤害=(（我方攻击系数-对方防御系数）*位置面向系数)*暴击判断
 我方攻击系数=（（我方武将普通攻击力*我方武将等级）+（我方士兵攻击力*我方士兵数量/5）*我方武将熟练兵种加成*对象相克系数）+我方技能攻击系数   
 我方技能攻击系数=我方技能攻击力*我方武将等级+技能额外攻击力（每个技能不同）   普通攻击时，我方技能攻击系数=0
@@ -266,7 +267,19 @@
                 非同行攻击=1.5
 我方暴击率=10%+（我方兵种暴击值-敌人兵种暴击值）/10
 暴击伤害倍率=暂时定为150%
-技能触发几率=（技能装备数量*5）/100+（我方武将技能攻击力-敌人武将技能攻击力）/1000</t>
+技能触发几率=（技能装备数量*5）/100+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（我方武将智力-敌人武将智力）/20*我方武将等级     红色字体修正区间[0,30%]</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +316,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -366,12 +387,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -383,6 +398,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:N30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1008,474 +1029,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="I1" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="I1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
     </row>
     <row r="19" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1720,192 +1741,192 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="15.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.75" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="1" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="15.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>5</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>5</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>7</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>6</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>7</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>8</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>6</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>15</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>20</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1921,97 +1942,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="J1" s="4"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
+      <c r="J1" s="2"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="8"/>
-      <c r="AC2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="6"/>
+      <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="5"/>
-      <c r="Z3" s="3"/>
-      <c r="AC3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="3"/>
+      <c r="Z3" s="1"/>
+      <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="5"/>
-      <c r="AC4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="3"/>
+      <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="J5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
+      <c r="J5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="S8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
+      <c r="S8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="R9" s="9"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="9"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="7"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="J10" s="10"/>
-      <c r="S10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="S10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="M15" s="10"/>
+      <c r="M15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/doc/数值设计/架构层/战斗系统架构.xlsx
+++ b/trunk/doc/数值设计/架构层/战斗系统架构.xlsx
@@ -265,6 +265,7 @@
 对方技能防御系数=对方技能防御力*对方武将等级     受到普通攻击时，技能防御系数=0
 位置面向系数=    同行攻击=1
                 非同行攻击=1.5
+战斗元素的生命值=我方武将的生命值*我方武将等级+（我方士兵生命值*我方士兵数量/2）*我方武将熟练兵种加成
 我方暴击率=10%+（我方兵种暴击值-敌人兵种暴击值）/10
 暴击伤害倍率=暂时定为150%
 技能触发几率=（技能装备数量*5）/100+</t>
@@ -326,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +355,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -407,6 +414,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1017,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A19" sqref="A19:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1498,11 +1507,75 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G17"/>
     <mergeCell ref="I1:O17"/>
-    <mergeCell ref="A19:N30"/>
+    <mergeCell ref="A19:N34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1940,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2026,13 +2099,82 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+    </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="F14" s="8"/>
       <c r="G14" s="7"/>
       <c r="M14" s="7"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="M15" s="8"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="13"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="13"/>
+    </row>
+    <row r="17" spans="22:28" x14ac:dyDescent="0.15">
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+    </row>
+    <row r="18" spans="22:28" x14ac:dyDescent="0.15">
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+    </row>
+    <row r="19" spans="22:28" x14ac:dyDescent="0.15">
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/doc/数值设计/架构层/战斗系统架构.xlsx
+++ b/trunk/doc/数值设计/架构层/战斗系统架构.xlsx
@@ -268,7 +268,7 @@
 战斗元素的生命值=我方武将的生命值*我方武将等级+（我方士兵生命值*我方士兵数量/2）*我方武将熟练兵种加成
 我方暴击率=10%+（我方兵种暴击值-敌人兵种暴击值）/10
 暴击伤害倍率=暂时定为150%
-技能触发几率=（技能装备数量*5）/100+</t>
+技能触发几率=（技能装备数量*8）/100+</t>
     </r>
     <r>
       <rPr>
@@ -405,6 +405,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -414,8 +416,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1038,538 +1038,538 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="10" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="I1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="19" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1657,20 +1657,20 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -2100,81 +2100,81 @@
       <c r="AB10" s="7"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="F14" s="8"/>
       <c r="G14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="M15" s="8"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13">
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10">
         <v>2</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="Z15" s="10">
         <v>4</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AA15" s="10">
         <v>5</v>
       </c>
-      <c r="AB15" s="13"/>
+      <c r="AB15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="13">
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="10">
         <v>1</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AA16" s="10">
         <v>3</v>
       </c>
-      <c r="AB16" s="13"/>
+      <c r="AB16" s="10"/>
     </row>
     <row r="17" spans="22:28" x14ac:dyDescent="0.15">
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
     </row>
     <row r="18" spans="22:28" x14ac:dyDescent="0.15">
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
     </row>
     <row r="19" spans="22:28" x14ac:dyDescent="0.15">
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/doc/数值设计/架构层/战斗系统架构.xlsx
+++ b/trunk/doc/数值设计/架构层/战斗系统架构.xlsx
@@ -44,7 +44,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统帅</t>
+  </si>
+  <si>
+    <t>统帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带兵数</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种相克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾矛兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对营地攻击力附加30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对骑兵攻击力附加300%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对步兵攻击力附加20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对弓兵攻击力附加100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标格+周围4格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标格+周围8格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家一级时的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由潜能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每级属性步长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由潜能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t xml:space="preserve">士兵属性：
 攻击力（整数）----决定了士兵伤害
@@ -52,223 +221,77 @@
 暴击值（整数）----决定了士兵的暴击率
 生命值（整数）----决定了士兵的生命值
 攻击距离（字符串）----决定士兵的攻击范围与距离
+效果范围（字符串）----决定士兵攻击的效果范围
 兵种相克（字符串）----决定士兵对其他兵种的克制能力
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>武攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练兵种加成</t>
+  </si>
+  <si>
+    <t>骑兵10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步兵10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步兵10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵10%，步兵10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">人物（武将）一级属性
 等级(整数)----影响玩家的能力，包括可携带兵种，各项属性的上限值。DEMO时期影响一级属性值。
-力量(整数)----影响普通攻击力与普通防御力
-智力(整数)----影响技能攻击力与技能防御力
+武力(整数)----影响武力攻击力与武力防御力
+智力(整数)----影响策略攻击力与策略防御力
 体力(整数)----影响生命值
 统帅(整数)----影响带兵数量
 二级属性
-普通攻击力(整数)-----影响普通攻击伤害
-普通防御力(整数)-----减少受到的普通攻击伤害
-技能攻击力(整数)-----影响技能伤害
-技能防御力(整数)-----减少受到的技能攻击伤害
+武力攻击力(整数)-----影响武力攻击伤害
+武力防御力(整数)-----减少受到的武力攻击伤害
+策略攻击力(整数)-----影响策略伤害
+策略防御力(整数)-----减少受到的策略攻击伤害
 生命值(整数)-----武将的生命值
 带兵数量上限(整数)-----武将能带的兵的数量
-熟练兵种加成(字符串)-----即兵种相生，武将对某一个或者多个特定兵种的加成，可以通过培养系统培养
+熟练兵种加成(字符串)-----即兵种相生，武将对某一个或者多个特定兵种的加成，可以通过培养系统培养，如吕布对骑兵有50%加成（基础）
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>智力</t>
-  </si>
-  <si>
-    <t>智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力</t>
-  </si>
-  <si>
-    <t>体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统帅</t>
-  </si>
-  <si>
-    <t>统帅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普攻</t>
-  </si>
-  <si>
-    <t>普防</t>
-  </si>
-  <si>
-    <t>技攻</t>
-  </si>
-  <si>
-    <t>技防</t>
-  </si>
-  <si>
-    <t>带兵数</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵种相克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾矛兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投石车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对营地攻击力附加30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对骑兵攻击力附加300%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对步兵攻击力附加20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对弓兵攻击力附加100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标格+周围4格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标格+周围8格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家一级时的属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由潜能点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每级属性步长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由潜能点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家</t>
-  </si>
-  <si>
-    <t>玩家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>伤害统计公式
 我方造成的伤害=(（我方攻击系数-对方防御系数）*位置面向系数)*暴击判断
-我方攻击系数=（（我方武将普通攻击力*我方武将等级）+（我方士兵攻击力*我方士兵数量/5）*我方武将熟练兵种加成*对象相克系数）+我方技能攻击系数   
-我方技能攻击系数=我方技能攻击力*我方武将等级+技能额外攻击力（每个技能不同）   普通攻击时，我方技能攻击系数=0
-对方防御系数=（（对方武将普通防御力*对方武将等级）+（对方士兵防御力*对方士兵数量/5）*对方武将熟练兵种加成*对象相克系数）+对方技能防御系数
-对方技能防御系数=对方技能防御力*对方武将等级     受到普通攻击时，技能防御系数=0
-位置面向系数=    同行攻击=1
-                非同行攻击=1.5
-战斗元素的生命值=我方武将的生命值*我方武将等级+（我方士兵生命值*我方士兵数量/2）*我方武将熟练兵种加成
-我方暴击率=10%+（我方兵种暴击值-敌人兵种暴击值）/10
-暴击伤害倍率=暂时定为150%
-技能触发几率=（技能装备数量*8）/100+</t>
+（公式1）我方攻击系数=（（我方武将</t>
     </r>
     <r>
       <rPr>
@@ -279,7 +302,110 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（我方武将智力-敌人武将智力）/20*我方武将等级     红色字体修正区间[0,30%]</t>
+      <t>武力攻击力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*我方武将等级）+（我方士兵攻击力*我方士兵数量/5）*（1+我方武将熟练兵种加成）*兵种相克系数）+我方技能额外攻击力    
+（公式1）对方防御系数=（（对方武将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>武力防御力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*对方武将等级）+（对方士兵防御力*对方士兵数量/5）*（1+我方武将熟练兵种加成）*兵种相克系数）
+（公式2）我方攻击系数=（（我方武将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>策略攻击力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*我方武将等级）+（我方士兵攻击力*我方士兵数量/5）*（1+我方武将熟练兵种加成）*兵种相克系数）+我方技能额外攻击力 
+（公式2）对方防御系数=（（对方武将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>策略防御力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*对方武将等级）+（对方士兵防御力*对方士兵数量/5）*（1+我方武将熟练兵种加成）*兵种相克系数）
+位置面向系数=    同行攻击=1
+                非同行攻击=1.5
+战斗元素的生命值=我方武将的生命值*我方武将等级+（我方士兵生命值*我方士兵数量/2）*（1+我方武将熟练兵种加成）
+我方暴击率=10%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（我方兵种暴击值-敌人兵种暴击值）/100   红色字体修正区间[0,50%]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+暴击伤害倍率=暂时定为150%
+技能触发几率=（技能装备数量*8）/100</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1026,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:N34"/>
+      <selection activeCell="A19" sqref="A19:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1039,7 +1165,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1048,7 +1174,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="I1" s="12" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
@@ -1297,7 +1423,7 @@
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1313,9 +1439,9 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
     </row>
-    <row r="19" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1330,8 +1456,10 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1346,8 +1474,10 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1362,8 +1492,10 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1378,8 +1510,10 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1394,8 +1528,10 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1410,8 +1546,10 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1426,8 +1564,10 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1442,8 +1582,10 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1458,8 +1600,10 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1474,8 +1618,10 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1490,8 +1636,10 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1506,8 +1654,10 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1522,8 +1672,10 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1538,8 +1690,10 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1554,8 +1708,10 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1570,12 +1726,14 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G17"/>
     <mergeCell ref="I1:O17"/>
-    <mergeCell ref="A19:N34"/>
+    <mergeCell ref="A19:P34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1587,7 +1745,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B16" sqref="B16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1599,27 +1757,27 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>25</v>
@@ -1630,7 +1788,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>25</v>
@@ -1641,7 +1799,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>40</v>
@@ -1649,7 +1807,7 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1658,11 +1816,11 @@
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B7" s="14"/>
       <c r="D7" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" s="14"/>
     </row>
@@ -1674,13 +1832,13 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1688,7 +1846,7 @@
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1696,7 +1854,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1704,7 +1862,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1712,7 +1870,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1720,39 +1878,39 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
         <v>7</v>
       </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1809,7 +1967,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1823,33 +1981,33 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4">
         <v>4</v>
@@ -1858,16 +2016,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4">
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I2" s="4">
         <v>1</v>
@@ -1875,7 +2033,7 @@
     </row>
     <row r="3" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -1884,16 +2042,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4">
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
@@ -1901,7 +2059,7 @@
     </row>
     <row r="4" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -1910,16 +2068,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -1927,7 +2085,7 @@
     </row>
     <row r="5" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -1936,16 +2094,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4">
         <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I5" s="4">
         <v>2</v>
@@ -1953,7 +2111,7 @@
     </row>
     <row r="6" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4">
         <v>8</v>
@@ -1962,16 +2120,16 @@
         <v>6</v>
       </c>
       <c r="D6" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4">
         <v>20</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I6" s="4">
         <v>3</v>
@@ -1979,7 +2137,7 @@
     </row>
     <row r="7" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4">
         <v>15</v>
@@ -1988,16 +2146,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4">
         <v>20</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -2184,55 +2342,58 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -2242,19 +2403,19 @@
       </c>
       <c r="F2">
         <f>一二级属性对应关系!$B$2*武将规划!B2</f>
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="G2">
         <f>一二级属性对应关系!$C$2*武将规划!B2</f>
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="H2">
         <f>一二级属性对应关系!$D$3*武将规划!C2</f>
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="I2">
         <f>一二级属性对应关系!$E$3*武将规划!C2</f>
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="J2">
         <f>一二级属性对应关系!$F$5*武将规划!E2</f>
@@ -2264,16 +2425,19 @@
         <f>D2*一二级属性对应关系!$G$4</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -2283,19 +2447,19 @@
       </c>
       <c r="F3">
         <f>一二级属性对应关系!$B$2*武将规划!B3</f>
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="G3">
         <f>一二级属性对应关系!$C$2*武将规划!B3</f>
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="H3">
         <f>一二级属性对应关系!$D$3*武将规划!C3</f>
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="I3">
         <f>一二级属性对应关系!$E$3*武将规划!C3</f>
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="J3">
         <f>一二级属性对应关系!$F$5*武将规划!E3</f>
@@ -2305,16 +2469,19 @@
         <f>D3*一二级属性对应关系!$G$4</f>
         <v>480</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -2324,19 +2491,19 @@
       </c>
       <c r="F4">
         <f>一二级属性对应关系!$B$2*武将规划!B4</f>
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="G4">
         <f>一二级属性对应关系!$C$2*武将规划!B4</f>
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="H4">
         <f>一二级属性对应关系!$D$3*武将规划!C4</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="I4">
         <f>一二级属性对应关系!$E$3*武将规划!C4</f>
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="J4">
         <f>一二级属性对应关系!$F$5*武将规划!E4</f>
@@ -2346,16 +2513,19 @@
         <f>D4*一二级属性对应关系!$G$4</f>
         <v>480</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -2365,19 +2535,19 @@
       </c>
       <c r="F5">
         <f>一二级属性对应关系!$B$2*武将规划!B5</f>
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="G5">
         <f>一二级属性对应关系!$C$2*武将规划!B5</f>
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="H5">
         <f>一二级属性对应关系!$D$3*武将规划!C5</f>
-        <v>325</v>
+        <v>200</v>
       </c>
       <c r="I5">
         <f>一二级属性对应关系!$E$3*武将规划!C5</f>
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="J5">
         <f>一二级属性对应关系!$F$5*武将规划!E5</f>
@@ -2387,13 +2557,16 @@
         <f>D5*一二级属性对应关系!$G$4</f>
         <v>560</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -2406,11 +2579,11 @@
       </c>
       <c r="F6">
         <f>一二级属性对应关系!$B$2*武将规划!B6</f>
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="G6">
         <f>一二级属性对应关系!$C$2*武将规划!B6</f>
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H6">
         <f>一二级属性对应关系!$D$3*武将规划!C6</f>
@@ -2428,10 +2601,13 @@
         <f>D6*一二级属性对应关系!$G$4</f>
         <v>520</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -2469,10 +2645,13 @@
         <f>D7*一二级属性对应关系!$G$4</f>
         <v>560</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>6</v>
